--- a/tests/resources/testdata.xlsx
+++ b/tests/resources/testdata.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -455,9 +455,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>98838111</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
